--- a/Base_Data/GBT 32808-2016 阀门型号编制数据.xlsx
+++ b/Base_Data/GBT 32808-2016 阀门型号编制数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuyong\Desktop\Criterion-Database\Base_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2579E16-744B-4CF9-AE19-22BBEA068169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E0C43-FCE4-4F88-8712-64120E31F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="135" windowWidth="28770" windowHeight="15450" firstSheet="18" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="阀门名称-类型代号" sheetId="1" r:id="rId1"/>
@@ -995,12 +995,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1291,9 +1288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2416,12 +2413,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2470,7 +2467,7 @@
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2482,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2492,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2502,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -2512,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2522,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2532,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2542,7 +2539,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2552,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2562,7 +2559,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2588,62 +2585,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2658,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0CDD20-B0E9-4BC4-9579-0F4A8C92F8E4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:D21"/>
     </sheetView>
   </sheetViews>
@@ -2790,36 +2787,36 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
